--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject38.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject38.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.79431567493852007</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.87517495837728787</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -161,13 +161,13 @@
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0</v>
+        <v>0.65434195644310766</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>0</v>
+        <v>0.93266364949188207</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.85245237167730203</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.96404131162324602</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.60160906419693028</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>0.92304419887958011</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>0</v>
+        <v>0.95876438699931787</v>
       </c>
       <c r="AM2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.79298238981774349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.9722774741644733</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.69716924076987286</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.83611591316431222</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.61667191171914548</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.65680637782469109</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.99468642265767759</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.71955889109527915</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>0</v>
+        <v>0.63745454206314944</v>
       </c>
       <c r="X4" s="0">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0</v>
+        <v>0.92496377326343304</v>
       </c>
       <c r="BJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.91162545894547375</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.69177750969189045</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.73328710663793029</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0</v>
+        <v>0.69966863668104207</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.67149657976631993</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.73607571893886981</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.80761313546317337</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.71974716741792877</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1379,22 +1379,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.97757198793395816</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.72491981515211223</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.60676485124744561</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>0.6257143659021962</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.9831269269812013</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.7754406674236034</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.5721726918058343</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>0.93558944026620749</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.81009540416698655</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.65682816945311884</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.6574104389980111</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0</v>
+        <v>0.78631925833833027</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.89068915732884313</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.6106390700328046</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0</v>
+        <v>0.90980101851872841</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.65979517431239088</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.53384923314123633</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.9176088613743929</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.69716456307621844</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
+        <v>0.77773856047530443</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.79674163654495977</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>0.53457495434680158</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.52053923067192587</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.73827965135634088</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.76399938584775584</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.69681831944053374</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>0.73218825276983679</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.60393266527644662</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.73769520883736228</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.86058445079850365</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.95887040675724799</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.76509568560885455</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3257,22 +3257,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.90545177207171257</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.89026985570489636</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0</v>
+        <v>0.51208139699683208</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.75479455051776356</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.91744702114176224</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.62861777698800303</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.86083709954296916</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.95174550026614135</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.77848112039344619</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.51369136963075468</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.71668916170415453</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3881,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.82946641892017836</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.58676367673116137</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.62024237407847771</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -3953,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0</v>
+        <v>0.70187558362263247</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.83461791423801002</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.77105852359532046</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.69265382805122777</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.50801592730408229</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.52333704431467187</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.91040171847966711</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.60972248775704485</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4511,22 +4511,22 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.88388577050429218</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.57579688521259453</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.91687330530020872</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.9723767349245005</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.93844337890865481</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>0.98215011412982878</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.64878079532952415</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.74642685329900182</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.6117870056746002</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.88909909907635964</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.70387076374587498</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>0</v>
+        <v>0.67690109308001245</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.98131202708736276</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.68964481931845745</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.57613168038764662</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.88992835198492859</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.59949099136698747</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0</v>
+        <v>0.89250673866487285</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0</v>
+        <v>0.77460799361678179</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.82633449145229387</v>
       </c>
     </row>
     <row r="27">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>0.75782459855015816</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.5052362950204895</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0</v>
+        <v>0.85260302300658608</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.53142930979829106</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.81052698512537824</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.73925229005349724</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>0</v>
+        <v>0.59499337157039622</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.92618773991791992</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.57510284635373643</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.8331732874395994</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.60044520852932592</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.93002816191755699</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.9554707839651877</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.88574204788402744</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.94325677749818471</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.63286418724180837</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>0</v>
+        <v>0.57681899437793205</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>0</v>
+        <v>0.8595823296707048</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.83664016407492003</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.54607662829792947</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.50328533714498525</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0</v>
+        <v>0.70407350937784263</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0</v>
+        <v>0.71622497034754251</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.85684059416981961</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.84890146257408838</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.62468392182231725</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="BE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.86045026925215695</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.7666453645483513</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.92174553766709877</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.57069212708880512</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.55400073672287342</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.84962424822352622</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.9996976293494706</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.99516783717125135</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.74208948585513623</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.56621399309557052</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.90043444177007614</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0</v>
+        <v>0.85256706066940935</v>
       </c>
     </row>
     <row r="37">
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.63207688734198364</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.94750116522584149</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.93512821315573935</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.78693783105794934</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>0.50573352207065714</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.9684928643203633</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>0</v>
+        <v>0.56564559320475671</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.75681602633948453</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.740944330182711</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.7650368374631058</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.97621110182866633</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.68606533683637805</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.87517773023156531</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.79087755426114925</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>0</v>
+        <v>0.95116226987349761</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.78334278947185521</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.63338268416739885</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.60187806578524539</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.69545849899330392</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>0</v>
+        <v>0.64692846680566385</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.94155887333972932</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.76089656725935617</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.98945383120922725</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.54991390225088077</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>0</v>
+        <v>0.99757659026171308</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.74442793924016737</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.62963159304249317</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.6771185810256497</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.83650807412143924</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8900,25 +8900,25 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.90852792057921916</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.84943002081235552</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.51692752118571395</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>0</v>
+        <v>0.50185167337746406</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.73312550494022544</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.56066622400409272</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.66350552929436457</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.60887744139869571</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.95359281320346112</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.78505247558332369</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.50335780959118215</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.85063640616951952</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.66402263764796321</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.91941263108681248</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.65718604753677434</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9730,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="0">
-        <v>0</v>
+        <v>0.83686503628319098</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.85745813629046985</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.98318764357021593</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.66444674386783298</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0</v>
+        <v>0.7942107292693773</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.52028138912659161</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.92025557800510094</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.83128244569025611</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.88298208592283345</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.94778582011574164</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.90823185693024044</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.81979509651593174</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.6765502702569528</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0</v>
+        <v>0.67022117610681731</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0</v>
+        <v>0.9897573031392547</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.54195302735537032</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.88129254784759148</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.74380949351635894</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.69816710735424015</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.51719742757826781</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.89132554210694093</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.81921456610844468</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>0</v>
+        <v>0.97510819433751017</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.85408757832130289</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.95129131523099597</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.75718228134012955</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.794675445206944</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.67534454210030082</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11020,13 +11020,13 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>0</v>
+        <v>0.51566367411544856</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.63339539249590571</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0</v>
+        <v>0.77562266731329077</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.79922421255856868</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>0</v>
+        <v>0.67023194268471586</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.88747840223790542</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.53906280245342075</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.58897939163967294</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>0</v>
+        <v>0.70293428317127327</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0</v>
+        <v>0.72193384048071363</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.5186983306111197</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.67405924958275865</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.81148625303188948</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.94346577680085131</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.83955954693335166</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.68382412580893326</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.91154101584133973</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.61366347862253234</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.96170450131935792</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0</v>
+        <v>0.68746196524885961</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.94505277871758719</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0</v>
+        <v>0.77977761809326096</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.75668620865805192</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.60000062655003417</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.79141931647870678</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.64027133219778776</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.50550591179438498</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.61394184779283945</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.519111548380359</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>0.68715638632699738</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>0</v>
+        <v>0.68528267279987198</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.84311233225607862</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.6549088155512176</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.7353689596461187</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12703,10 +12703,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>0.69733221644832599</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.54156046553107462</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.87147026854400744</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.57393538226351637</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.93218239119941093</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0</v>
+        <v>0.76587801830429436</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.7103320527783521</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.87493050692729402</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.98038380689163362</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.73733758005577532</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.81014316013848431</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.5995551998114157</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.76183629250886731</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0</v>
+        <v>0.71020515152697294</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.77655443856892248</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.65861285038026884</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.90930585600269076</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0</v>
+        <v>0.60755098123881091</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.55213510598766513</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.71209621835627845</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.53343815512596426</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.84247648271481812</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>0</v>
+        <v>0.95864385437994715</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.52596988867645533</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.56952158431245747</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0</v>
+        <v>0.97368444105157226</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="BG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.81203820489915368</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject38.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject38.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.79431567493852007</v>
+        <v>0.96404131162324602</v>
       </c>
       <c r="C1" s="0">
-        <v>0.87517495837728787</v>
+        <v>0.9722774741644733</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.60160906419693028</v>
+        <v>0.69716924076987286</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.83611591316431222</v>
       </c>
       <c r="E3" s="0">
-        <v>0.61667191171914548</v>
+        <v>0.91162545894547375</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.65680637782469109</v>
+        <v>0.83611591316431222</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>0.63745454206314944</v>
+        <v>0.98215011412982878</v>
       </c>
       <c r="X4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0.91162545894547375</v>
       </c>
       <c r="D5" s="0">
-        <v>0.69177750969189045</v>
+        <v>0.99468642265767759</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.73328710663793029</v>
+        <v>0.73607571893886981</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.67149657976631993</v>
+        <v>0.71955889109527915</v>
       </c>
       <c r="E6" s="0">
         <v>0.73607571893886981</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.80761313546317337</v>
+        <v>0.97757198793395816</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.71974716741792877</v>
+        <v>0.74442793924016737</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.72491981515211223</v>
+        <v>0.9831269269812013</v>
       </c>
       <c r="I7" s="0">
-        <v>0.60676485124744561</v>
+        <v>0.81009540416698655</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.6257143659021962</v>
+        <v>0.65979517431239088</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0.7754406674236034</v>
       </c>
       <c r="J8" s="0">
-        <v>0.5721726918058343</v>
+        <v>0.89068915732884313</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0.81009540416698655</v>
       </c>
       <c r="H9" s="0">
-        <v>0.65682816945311884</v>
+        <v>0.7754406674236034</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.6106390700328046</v>
+        <v>0.9176088613743929</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.53384923314123633</v>
+        <v>0.6574104389980111</v>
       </c>
       <c r="J11" s="0">
         <v>0.9176088613743929</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.69716456307621844</v>
+        <v>0.76399938584775584</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.79674163654495977</v>
+        <v>0.9684928643203633</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.53457495434680158</v>
+        <v>0.65434195644310766</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.52053923067192587</v>
+        <v>0.60393266527644662</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0.73827965135634088</v>
+        <v>0.92304419887958011</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.69681831944053374</v>
+        <v>0.86058445079850365</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.73218825276983679</v>
+        <v>0.93266364949188207</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.73769520883736228</v>
+        <v>0.90545177207171257</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.76509568560885455</v>
+        <v>0.94505277871758719</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0.51208139699683208</v>
+        <v>0.7942107292693773</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.75479455051776356</v>
+        <v>0.95887040675724799</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.91744702114176224</v>
+        <v>0.95174550026614135</v>
       </c>
       <c r="S17" s="0">
-        <v>0.62861777698800303</v>
+        <v>0.82946641892017836</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.86083709954296916</v>
+        <v>0.89026985570489636</v>
       </c>
       <c r="Q18" s="0">
         <v>0.95174550026614135</v>
@@ -3687,7 +3687,7 @@
         <v>0.77848112039344619</v>
       </c>
       <c r="T18" s="0">
-        <v>0.51369136963075468</v>
+        <v>0.83461791423801002</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0.71668916170415453</v>
+        <v>0.88747840223790542</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0.82946641892017836</v>
       </c>
       <c r="R19" s="0">
-        <v>0.58676367673116137</v>
+        <v>0.77848112039344619</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.62024237407847771</v>
+        <v>0.77105852359532046</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.70187558362263247</v>
+        <v>0.95116226987349761</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.69265382805122777</v>
       </c>
       <c r="V20" s="0">
-        <v>0.50801592730408229</v>
+        <v>0.88388577050429218</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.52333704431467187</v>
+        <v>0.69265382805122777</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.60972248775704485</v>
+        <v>0.69545849899330392</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0.88388577050429218</v>
       </c>
       <c r="U22" s="0">
-        <v>0.57579688521259453</v>
+        <v>0.91040171847966711</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0.9723767349245005</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.93844337890865481</v>
+        <v>0.98131202708736276</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.64878079532952415</v>
+        <v>0.91687330530020872</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.74642685329900182</v>
+        <v>0.88909909907635964</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.6117870056746002</v>
+        <v>0.9723767349245005</v>
       </c>
       <c r="W24" s="0">
         <v>0.88909909907635964</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.68964481931845745</v>
+        <v>0.88992835198492859</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.57613168038764662</v>
+        <v>0.70387076374587498</v>
       </c>
       <c r="Y26" s="0">
         <v>0.88992835198492859</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0.89250673866487285</v>
+        <v>0.9897573031392547</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0.77460799361678179</v>
+        <v>0.77562266731329077</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0.75782459855015816</v>
+        <v>0.93558944026620749</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.5052362950204895</v>
+        <v>0.81052698512537824</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0.85260302300658608</v>
+        <v>0.95864385437994715</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.53142930979829106</v>
+        <v>0.59949099136698747</v>
       </c>
       <c r="AA28" s="0">
         <v>0.81052698512537824</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.73925229005349724</v>
+        <v>0.8331732874395994</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>0.59499337157039622</v>
+        <v>0.64692846680566385</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.92618773991791992</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.57510284635373643</v>
+        <v>0.88574204788402744</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0.8331732874395994</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.60044520852932592</v>
+        <v>0.92618773991791992</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.93002816191755699</v>
+        <v>0.94325677749818471</v>
       </c>
       <c r="AF30" s="0">
         <v>0.9554707839651877</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.63286418724180837</v>
+        <v>0.85684059416981961</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>0.57681899437793205</v>
+        <v>0.97510819433751017</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.83664016407492003</v>
+        <v>0.9554707839651877</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.54607662829792947</v>
+        <v>0.84890146257408838</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.50328533714498525</v>
+        <v>0.86045026925215695</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0.70407350937784263</v>
+        <v>0.72193384048071363</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0.71622497034754251</v>
+        <v>0.77773856047530443</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.7666453645483513</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.92174553766709877</v>
+        <v>0.99516783717125135</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.57069212708880512</v>
+        <v>0.62468392182231725</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.55400073672287342</v>
+        <v>0.7666453645483513</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0.99516783717125135</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.74208948585513623</v>
+        <v>0.84962424822352622</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.56621399309557052</v>
+        <v>0.94750116522584149</v>
       </c>
       <c r="AL36" s="0">
         <v>0.90043444177007614</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0.85256706066940935</v>
+        <v>0.97368444105157226</v>
       </c>
     </row>
     <row r="37">
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.63207688734198364</v>
+        <v>0.9996976293494706</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.94750116522584149</v>
@@ -7658,7 +7658,7 @@
         <v>0.93512821315573935</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.78693783105794934</v>
+        <v>0.97621110182866633</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>0.50573352207065714</v>
+        <v>0.95876438699931787</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>0.56564559320475671</v>
+        <v>0.67690109308001245</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.75681602633948453</v>
+        <v>0.90043444177007614</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.740944330182711</v>
+        <v>0.93512821315573935</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0.97621110182866633</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.68606533683637805</v>
+        <v>0.7650368374631058</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0.87517773023156531</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.79087755426114925</v>
+        <v>0.94155887333972932</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.78334278947185521</v>
+        <v>0.87517773023156531</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.63338268416739885</v>
+        <v>0.76089656725935617</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.60187806578524539</v>
+        <v>0.62963159304249317</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.54991390225088077</v>
+        <v>0.85063640616951952</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.6771185810256497</v>
+        <v>0.84943002081235552</v>
       </c>
       <c r="AR42" s="0">
         <v>0.83650807412143924</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.90852792057921916</v>
+        <v>0.98945383120922725</v>
       </c>
       <c r="AP43" s="0">
         <v>0.84943002081235552</v>
@@ -8912,13 +8912,13 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.51692752118571395</v>
+        <v>0.60887744139869571</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>0.50185167337746406</v>
+        <v>0.83686503628319098</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.73312550494022544</v>
+        <v>0.83650807412143924</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.56066622400409272</v>
+        <v>0.95359281320346112</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.66350552929436457</v>
+        <v>0.66402263764796321</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.78505247558332369</v>
+        <v>0.91941263108681248</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.50335780959118215</v>
+        <v>0.85745813629046985</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.98318764357021593</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.66444674386783298</v>
+        <v>0.94778582011574164</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.52028138912659161</v>
+        <v>0.65718604753677434</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.92025557800510094</v>
+        <v>0.98318764357021593</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.83128244569025611</v>
+        <v>0.90823185693024044</v>
       </c>
       <c r="AX48" s="0">
         <v>0.88298208592283345</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.81979509651593174</v>
+        <v>0.88129254784759148</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.6765502702569528</v>
+        <v>0.69816710735424015</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0.67022117610681731</v>
+        <v>0.78631925833833027</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.54195302735537032</v>
+        <v>0.88298208592283345</v>
       </c>
       <c r="AW50" s="0">
         <v>0.88129254784759148</v>
@@ -10575,7 +10575,7 @@
         <v>0.69816710735424015</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.51719742757826781</v>
+        <v>0.74380949351635894</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.85408757832130289</v>
+        <v>0.89132554210694093</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.75718228134012955</v>
+        <v>0.81921456610844468</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.794675445206944</v>
+        <v>0.95129131523099597</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11020,13 +11020,13 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>0.51566367411544856</v>
+        <v>0.68528267279987198</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0.63339539249590571</v>
+        <v>0.7103320527783521</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.53906280245342075</v>
+        <v>0.67534454210030082</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.58897939163967294</v>
+        <v>0.67405924958275865</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>0.70293428317127327</v>
+        <v>0.71020515152697294</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.5186983306111197</v>
+        <v>0.79922421255856868</v>
       </c>
       <c r="BC56" s="0">
         <v>0.67405924958275865</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.68382412580893326</v>
+        <v>0.81148625303188948</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.91154101584133973</v>
+        <v>0.94346577680085131</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0.68746196524885961</v>
+        <v>0.90980101851872841</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0.77977761809326096</v>
+        <v>0.8595823296707048</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.75668620865805192</v>
+        <v>0.83955954693335166</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.60000062655003417</v>
+        <v>0.61366347862253234</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0.79141931647870678</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.64027133219778776</v>
+        <v>0.84311233225607862</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.50550591179438498</v>
+        <v>0.79141931647870678</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.61394184779283945</v>
+        <v>0.6549088155512176</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.519111548380359</v>
+        <v>0.54156046553107462</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0.68715638632699738</v>
+        <v>0.92496377326343304</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.7353689596461187</v>
+        <v>0.87147026854400744</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.69733221644832599</v>
+        <v>0.69966863668104207</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.57393538226351637</v>
+        <v>0.98038380689163362</v>
       </c>
       <c r="BL62" s="0">
         <v>0.93218239119941093</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0.76587801830429436</v>
+        <v>0.99757659026171308</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0.87493050692729402</v>
+        <v>0.96170450131935792</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.73733758005577532</v>
+        <v>0.77655443856892248</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.81014316013848431</v>
+        <v>0.93218239119941093</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.5995551998114157</v>
+        <v>0.65861285038026884</v>
       </c>
       <c r="BN64" s="0">
         <v>0.76183629250886731</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0.60755098123881091</v>
+        <v>0.67023194268471586</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.55213510598766513</v>
+        <v>0.76183629250886731</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.71209621835627845</v>
+        <v>0.90930585600269076</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.53343815512596426</v>
+        <v>0.81203820489915368</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.84247648271481812</v>
+        <v>0.85245237167730203</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.52596988867645533</v>
+        <v>0.79298238981774349</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0.56952158431245747</v>
+        <v>0.82633449145229387</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
